--- a/Semilleros_de_Investigación_2021.xlsx
+++ b/Semilleros_de_Investigación_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\2. Universidades\4. IUDigital\1.Especializacion_Analitica_BigData\Caracterización Estadística de Datos\F30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF07F9A-8BF0-4A7D-8A0A-A73EACDFF3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A564D4B-6767-462A-B139-E44B24FE2B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7895,7 +7895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7929,33 +7929,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -8351,22 +8329,22 @@
   </dxfs>
   <tableStyles count="4">
     <tableStyle name="Semilleros de Investigación - 2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="50"/>
-      <tableStyleElement type="firstRowStripe" dxfId="49"/>
-      <tableStyleElement type="secondRowStripe" dxfId="48"/>
-    </tableStyle>
-    <tableStyle name="Retiros-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Retiros-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Retiros-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
+    <tableStyle name="Retiros-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
+    </tableStyle>
     <tableStyle name="Retiros-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -8381,44 +8359,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AJ234" headerRowDxfId="2" dataDxfId="3" totalsRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AJ234" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
   <tableColumns count="36">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CUMPLEAÑOS" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="EDAD" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FECHA_INGRESO" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TIEMPO_INSTITUCION" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PAIS_RESIDENCIA" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEPARTAMENTO_RESIDENCIA" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="MUNICIPIO_RESIDENCIA" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="PROGRAMA_ACADEMICO" dataDxfId="33"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="FACULTAD" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="SEMESTRE_ACTUAL" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="COHORTE" dataDxfId="30"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="GRUPO" dataDxfId="29"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="EMPRESA" dataDxfId="28"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="TRABAJO_ACTUAL" dataDxfId="27"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TIEMPO_EXPERIENCIA_LABORAL" dataDxfId="26"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="SECTOR_TRABAJO" dataDxfId="25"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="PARTICIPACION_SEMILLEROS" dataDxfId="24"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="SEMILLEROS_IUD" dataDxfId="23"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="NOMBRE_PROYECTO" dataDxfId="22"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="PRODUCCION_CIENTIFICA" dataDxfId="21"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="EXPERIENCIA_INVESTIGACION" dataDxfId="20"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="PRODUCTOS_INVESTIGACION" dataDxfId="19"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="OTRO_PRODUCTO" dataDxfId="18"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="INTERES_INVESTIGACION" dataDxfId="17"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LINEA_MATRIZ_INTERES" dataDxfId="16"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="1. Línea Matriz de Investigación en Sostenibilidad Ambiental." dataDxfId="15"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2. Línea Matriz de Investigación en Ingeniería" dataDxfId="14"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="3. Línea Matriz de Investigación en Innovación Digital" dataDxfId="13"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="4. Línea Matriz de Investigación en Desarrollo Social" dataDxfId="12"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="SEMILLERO_PREFERENCIA" dataDxfId="11"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="INTERES_HORARIO" dataDxfId="10"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="INTERES_HORARIO_2" dataDxfId="9"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="INTERES_SEMILLEROS" dataDxfId="8"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="SEXO" dataDxfId="7"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="TIPO_SANGRE" dataDxfId="6"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="SEMILLERO_ACTUAL" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CUMPLEAÑOS" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="EDAD" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FECHA_INGRESO" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TIEMPO_INSTITUCION" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PAIS_RESIDENCIA" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEPARTAMENTO_RESIDENCIA" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="MUNICIPIO_RESIDENCIA" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="PROGRAMA_ACADEMICO" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="FACULTAD" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="SEMESTRE_ACTUAL" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="COHORTE" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="GRUPO" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="EMPRESA" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="TRABAJO_ACTUAL" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TIEMPO_EXPERIENCIA_LABORAL" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="SECTOR_TRABAJO" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="PARTICIPACION_SEMILLEROS" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="SEMILLEROS_IUD" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="NOMBRE_PROYECTO" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="PRODUCCION_CIENTIFICA" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="EXPERIENCIA_INVESTIGACION" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="PRODUCTOS_INVESTIGACION" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="OTRO_PRODUCTO" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="INTERES_INVESTIGACION" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LINEA_MATRIZ_INTERES" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="1. Línea Matriz de Investigación en Sostenibilidad Ambiental." dataDxfId="10"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2. Línea Matriz de Investigación en Ingeniería" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="3. Línea Matriz de Investigación en Innovación Digital" dataDxfId="8"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="4. Línea Matriz de Investigación en Desarrollo Social" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="SEMILLERO_PREFERENCIA" dataDxfId="6"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="INTERES_HORARIO" dataDxfId="5"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="INTERES_HORARIO_2" dataDxfId="4"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="INTERES_SEMILLEROS" dataDxfId="3"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="SEXO" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="TIPO_SANGRE" dataDxfId="1"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="SEMILLERO_ACTUAL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -8625,7 +8603,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ319"/>
+  <dimension ref="A1:AJ234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30192,704 +30170,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="4"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
-      <c r="M235" s="5"/>
-      <c r="N235" s="5"/>
-      <c r="O235" s="5"/>
-      <c r="P235" s="5"/>
-      <c r="Q235" s="5"/>
-      <c r="R235" s="5"/>
-      <c r="S235" s="5"/>
-      <c r="T235" s="5"/>
-      <c r="U235" s="5"/>
-      <c r="V235" s="5"/>
-      <c r="W235" s="5"/>
-      <c r="X235" s="8"/>
-      <c r="Y235" s="5"/>
-      <c r="Z235" s="5"/>
-      <c r="AA235" s="5"/>
-      <c r="AB235" s="5"/>
-      <c r="AC235" s="5"/>
-      <c r="AD235" s="10"/>
-      <c r="AE235" s="5"/>
-      <c r="AF235" s="5"/>
-      <c r="AG235" s="5"/>
-      <c r="AH235" s="5"/>
-      <c r="AI235" s="8"/>
-    </row>
-    <row r="236" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="12"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5"/>
-      <c r="K236" s="5"/>
-      <c r="L236" s="5"/>
-      <c r="M236" s="5"/>
-      <c r="N236" s="5"/>
-      <c r="O236" s="5"/>
-      <c r="P236" s="5"/>
-      <c r="Q236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
-      <c r="U236" s="5"/>
-      <c r="V236" s="5"/>
-      <c r="W236" s="5"/>
-      <c r="X236" s="8"/>
-      <c r="Y236" s="5"/>
-      <c r="Z236" s="5"/>
-      <c r="AA236" s="5"/>
-      <c r="AB236" s="5"/>
-      <c r="AC236" s="5"/>
-      <c r="AD236" s="10"/>
-      <c r="AE236" s="5"/>
-      <c r="AF236" s="5"/>
-      <c r="AG236" s="5"/>
-      <c r="AH236" s="5"/>
-      <c r="AI236" s="8"/>
-      <c r="AJ236" s="9"/>
-    </row>
-    <row r="237" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="5"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="12"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5"/>
-      <c r="K237" s="5"/>
-      <c r="L237" s="5"/>
-      <c r="M237" s="5"/>
-      <c r="N237" s="5"/>
-      <c r="O237" s="5"/>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5"/>
-      <c r="V237" s="5"/>
-      <c r="W237" s="5"/>
-      <c r="X237" s="8"/>
-      <c r="Y237" s="5"/>
-      <c r="Z237" s="5"/>
-      <c r="AA237" s="5"/>
-      <c r="AB237" s="5"/>
-      <c r="AC237" s="5"/>
-      <c r="AD237" s="10"/>
-      <c r="AE237" s="5"/>
-      <c r="AF237" s="5"/>
-      <c r="AG237" s="5"/>
-      <c r="AH237" s="5"/>
-      <c r="AI237" s="8"/>
-      <c r="AJ237" s="17"/>
-    </row>
-    <row r="238" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="18"/>
-      <c r="D238" s="18"/>
-      <c r="X238" s="13"/>
-      <c r="AI238" s="13"/>
-      <c r="AJ238" s="13"/>
-    </row>
-    <row r="239" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="18"/>
-      <c r="D239" s="18"/>
-      <c r="X239" s="13"/>
-      <c r="AI239" s="13"/>
-      <c r="AJ239" s="13"/>
-    </row>
-    <row r="240" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="18"/>
-      <c r="D240" s="18"/>
-      <c r="X240" s="13"/>
-      <c r="AI240" s="13"/>
-      <c r="AJ240" s="13"/>
-    </row>
-    <row r="241" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="18"/>
-      <c r="D241" s="18"/>
-      <c r="X241" s="13"/>
-      <c r="AI241" s="13"/>
-      <c r="AJ241" s="13"/>
-    </row>
-    <row r="242" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="18"/>
-      <c r="D242" s="18"/>
-      <c r="X242" s="13"/>
-      <c r="AI242" s="13"/>
-      <c r="AJ242" s="13"/>
-    </row>
-    <row r="243" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="18"/>
-      <c r="D243" s="18"/>
-      <c r="X243" s="13"/>
-      <c r="AI243" s="13"/>
-      <c r="AJ243" s="13"/>
-    </row>
-    <row r="244" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B244" s="18"/>
-      <c r="D244" s="18"/>
-      <c r="X244" s="13"/>
-      <c r="AI244" s="13"/>
-      <c r="AJ244" s="13"/>
-    </row>
-    <row r="245" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="18"/>
-      <c r="D245" s="18"/>
-      <c r="X245" s="13"/>
-      <c r="AI245" s="13"/>
-      <c r="AJ245" s="13"/>
-    </row>
-    <row r="246" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B246" s="18"/>
-      <c r="D246" s="18"/>
-      <c r="X246" s="13"/>
-      <c r="AI246" s="13"/>
-      <c r="AJ246" s="13"/>
-    </row>
-    <row r="247" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B247" s="18"/>
-      <c r="D247" s="18"/>
-      <c r="X247" s="13"/>
-      <c r="AI247" s="13"/>
-      <c r="AJ247" s="13"/>
-    </row>
-    <row r="248" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="18"/>
-      <c r="D248" s="18"/>
-      <c r="X248" s="13"/>
-      <c r="AI248" s="13"/>
-      <c r="AJ248" s="13"/>
-    </row>
-    <row r="249" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B249" s="18"/>
-      <c r="D249" s="18"/>
-      <c r="X249" s="13"/>
-      <c r="AI249" s="13"/>
-      <c r="AJ249" s="13"/>
-    </row>
-    <row r="250" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B250" s="18"/>
-      <c r="D250" s="18"/>
-      <c r="X250" s="13"/>
-      <c r="AI250" s="13"/>
-      <c r="AJ250" s="13"/>
-    </row>
-    <row r="251" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="18"/>
-      <c r="D251" s="18"/>
-      <c r="X251" s="13"/>
-      <c r="AI251" s="13"/>
-      <c r="AJ251" s="13"/>
-    </row>
-    <row r="252" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B252" s="18"/>
-      <c r="D252" s="18"/>
-      <c r="X252" s="13"/>
-      <c r="AI252" s="13"/>
-      <c r="AJ252" s="13"/>
-    </row>
-    <row r="253" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="18"/>
-      <c r="D253" s="18"/>
-      <c r="X253" s="13"/>
-      <c r="AI253" s="13"/>
-      <c r="AJ253" s="13"/>
-    </row>
-    <row r="254" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="X254" s="13"/>
-      <c r="AI254" s="13"/>
-      <c r="AJ254" s="13"/>
-    </row>
-    <row r="255" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="18"/>
-      <c r="D255" s="18"/>
-      <c r="X255" s="13"/>
-      <c r="AI255" s="13"/>
-      <c r="AJ255" s="13"/>
-    </row>
-    <row r="256" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="18"/>
-      <c r="D256" s="18"/>
-      <c r="X256" s="13"/>
-      <c r="AI256" s="13"/>
-      <c r="AJ256" s="13"/>
-    </row>
-    <row r="257" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B257" s="18"/>
-      <c r="D257" s="18"/>
-      <c r="X257" s="13"/>
-      <c r="AI257" s="13"/>
-      <c r="AJ257" s="13"/>
-    </row>
-    <row r="258" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B258" s="18"/>
-      <c r="D258" s="18"/>
-      <c r="X258" s="13"/>
-      <c r="AI258" s="13"/>
-      <c r="AJ258" s="13"/>
-    </row>
-    <row r="259" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="18"/>
-      <c r="D259" s="18"/>
-      <c r="X259" s="13"/>
-      <c r="AI259" s="13"/>
-      <c r="AJ259" s="13"/>
-    </row>
-    <row r="260" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="18"/>
-      <c r="D260" s="18"/>
-      <c r="X260" s="13"/>
-      <c r="AI260" s="13"/>
-      <c r="AJ260" s="13"/>
-    </row>
-    <row r="261" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B261" s="18"/>
-      <c r="D261" s="18"/>
-      <c r="X261" s="13"/>
-      <c r="AI261" s="13"/>
-      <c r="AJ261" s="13"/>
-    </row>
-    <row r="262" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="X262" s="13"/>
-      <c r="AI262" s="13"/>
-      <c r="AJ262" s="13"/>
-    </row>
-    <row r="263" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="18"/>
-      <c r="D263" s="18"/>
-      <c r="X263" s="13"/>
-      <c r="AI263" s="13"/>
-      <c r="AJ263" s="13"/>
-    </row>
-    <row r="264" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B264" s="18"/>
-      <c r="D264" s="18"/>
-      <c r="X264" s="13"/>
-      <c r="AI264" s="13"/>
-      <c r="AJ264" s="13"/>
-    </row>
-    <row r="265" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="18"/>
-      <c r="D265" s="18"/>
-      <c r="X265" s="13"/>
-      <c r="AI265" s="13"/>
-      <c r="AJ265" s="13"/>
-    </row>
-    <row r="266" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="18"/>
-      <c r="D266" s="18"/>
-      <c r="X266" s="13"/>
-      <c r="AI266" s="13"/>
-      <c r="AJ266" s="13"/>
-    </row>
-    <row r="267" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B267" s="18"/>
-      <c r="D267" s="18"/>
-      <c r="X267" s="13"/>
-      <c r="AI267" s="13"/>
-      <c r="AJ267" s="13"/>
-    </row>
-    <row r="268" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B268" s="18"/>
-      <c r="D268" s="18"/>
-      <c r="X268" s="13"/>
-      <c r="AI268" s="13"/>
-      <c r="AJ268" s="13"/>
-    </row>
-    <row r="269" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="X269" s="13"/>
-      <c r="AI269" s="13"/>
-      <c r="AJ269" s="13"/>
-    </row>
-    <row r="270" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="X270" s="13"/>
-      <c r="AI270" s="13"/>
-      <c r="AJ270" s="13"/>
-    </row>
-    <row r="271" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="18"/>
-      <c r="D271" s="18"/>
-      <c r="X271" s="13"/>
-      <c r="AI271" s="13"/>
-      <c r="AJ271" s="13"/>
-    </row>
-    <row r="272" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="18"/>
-      <c r="D272" s="18"/>
-      <c r="X272" s="13"/>
-      <c r="AI272" s="13"/>
-      <c r="AJ272" s="13"/>
-    </row>
-    <row r="273" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="18"/>
-      <c r="D273" s="18"/>
-      <c r="X273" s="13"/>
-      <c r="AI273" s="13"/>
-      <c r="AJ273" s="13"/>
-    </row>
-    <row r="274" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="18"/>
-      <c r="D274" s="18"/>
-      <c r="X274" s="13"/>
-      <c r="AI274" s="13"/>
-      <c r="AJ274" s="13"/>
-    </row>
-    <row r="275" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B275" s="18"/>
-      <c r="D275" s="18"/>
-      <c r="X275" s="13"/>
-      <c r="AI275" s="13"/>
-      <c r="AJ275" s="13"/>
-    </row>
-    <row r="276" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="18"/>
-      <c r="D276" s="18"/>
-      <c r="X276" s="13"/>
-      <c r="AI276" s="13"/>
-      <c r="AJ276" s="13"/>
-    </row>
-    <row r="277" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="18"/>
-      <c r="D277" s="18"/>
-      <c r="X277" s="13"/>
-      <c r="AI277" s="13"/>
-      <c r="AJ277" s="13"/>
-    </row>
-    <row r="278" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="18"/>
-      <c r="D278" s="18"/>
-      <c r="X278" s="13"/>
-      <c r="AI278" s="13"/>
-      <c r="AJ278" s="13"/>
-    </row>
-    <row r="279" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="18"/>
-      <c r="D279" s="18"/>
-      <c r="X279" s="13"/>
-      <c r="AI279" s="13"/>
-      <c r="AJ279" s="13"/>
-    </row>
-    <row r="280" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B280" s="18"/>
-      <c r="D280" s="18"/>
-      <c r="X280" s="13"/>
-      <c r="AI280" s="13"/>
-      <c r="AJ280" s="13"/>
-    </row>
-    <row r="281" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="18"/>
-      <c r="D281" s="18"/>
-      <c r="X281" s="13"/>
-      <c r="AI281" s="13"/>
-      <c r="AJ281" s="13"/>
-    </row>
-    <row r="282" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="18"/>
-      <c r="D282" s="18"/>
-      <c r="X282" s="13"/>
-      <c r="AI282" s="13"/>
-      <c r="AJ282" s="13"/>
-    </row>
-    <row r="283" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="18"/>
-      <c r="D283" s="18"/>
-      <c r="X283" s="13"/>
-      <c r="AI283" s="13"/>
-      <c r="AJ283" s="13"/>
-    </row>
-    <row r="284" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="18"/>
-      <c r="D284" s="18"/>
-      <c r="X284" s="13"/>
-      <c r="AI284" s="13"/>
-      <c r="AJ284" s="13"/>
-    </row>
-    <row r="285" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="18"/>
-      <c r="D285" s="18"/>
-      <c r="X285" s="13"/>
-      <c r="AI285" s="13"/>
-      <c r="AJ285" s="13"/>
-    </row>
-    <row r="286" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="18"/>
-      <c r="D286" s="18"/>
-      <c r="X286" s="13"/>
-      <c r="AI286" s="13"/>
-      <c r="AJ286" s="13"/>
-    </row>
-    <row r="287" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="18"/>
-      <c r="D287" s="18"/>
-      <c r="X287" s="13"/>
-      <c r="AI287" s="13"/>
-      <c r="AJ287" s="13"/>
-    </row>
-    <row r="288" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="18"/>
-      <c r="D288" s="18"/>
-      <c r="X288" s="13"/>
-      <c r="AI288" s="13"/>
-      <c r="AJ288" s="13"/>
-    </row>
-    <row r="289" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="18"/>
-      <c r="D289" s="18"/>
-      <c r="X289" s="13"/>
-      <c r="AI289" s="13"/>
-      <c r="AJ289" s="13"/>
-    </row>
-    <row r="290" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="18"/>
-      <c r="D290" s="18"/>
-      <c r="X290" s="13"/>
-      <c r="AI290" s="13"/>
-      <c r="AJ290" s="13"/>
-    </row>
-    <row r="291" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="18"/>
-      <c r="D291" s="18"/>
-      <c r="X291" s="13"/>
-      <c r="AI291" s="13"/>
-      <c r="AJ291" s="13"/>
-    </row>
-    <row r="292" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="18"/>
-      <c r="D292" s="18"/>
-      <c r="X292" s="13"/>
-      <c r="AI292" s="13"/>
-      <c r="AJ292" s="13"/>
-    </row>
-    <row r="293" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="18"/>
-      <c r="D293" s="18"/>
-      <c r="X293" s="13"/>
-      <c r="AI293" s="13"/>
-      <c r="AJ293" s="13"/>
-    </row>
-    <row r="294" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="18"/>
-      <c r="D294" s="18"/>
-      <c r="X294" s="13"/>
-      <c r="AI294" s="13"/>
-      <c r="AJ294" s="13"/>
-    </row>
-    <row r="295" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="18"/>
-      <c r="D295" s="18"/>
-      <c r="X295" s="13"/>
-      <c r="AI295" s="13"/>
-      <c r="AJ295" s="13"/>
-    </row>
-    <row r="296" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="18"/>
-      <c r="D296" s="18"/>
-      <c r="X296" s="13"/>
-      <c r="AI296" s="13"/>
-      <c r="AJ296" s="13"/>
-    </row>
-    <row r="297" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="18"/>
-      <c r="D297" s="18"/>
-      <c r="X297" s="13"/>
-      <c r="AI297" s="13"/>
-      <c r="AJ297" s="13"/>
-    </row>
-    <row r="298" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="18"/>
-      <c r="D298" s="18"/>
-      <c r="X298" s="13"/>
-      <c r="AI298" s="13"/>
-      <c r="AJ298" s="13"/>
-    </row>
-    <row r="299" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="18"/>
-      <c r="D299" s="18"/>
-      <c r="X299" s="13"/>
-      <c r="AI299" s="13"/>
-      <c r="AJ299" s="13"/>
-    </row>
-    <row r="300" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="18"/>
-      <c r="D300" s="18"/>
-      <c r="X300" s="13"/>
-      <c r="AI300" s="13"/>
-      <c r="AJ300" s="13"/>
-    </row>
-    <row r="301" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="18"/>
-      <c r="D301" s="18"/>
-      <c r="X301" s="13"/>
-      <c r="AI301" s="13"/>
-      <c r="AJ301" s="13"/>
-    </row>
-    <row r="302" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="18"/>
-      <c r="D302" s="18"/>
-      <c r="X302" s="13"/>
-      <c r="AI302" s="13"/>
-      <c r="AJ302" s="13"/>
-    </row>
-    <row r="303" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="18"/>
-      <c r="D303" s="18"/>
-      <c r="X303" s="13"/>
-      <c r="AI303" s="13"/>
-      <c r="AJ303" s="13"/>
-    </row>
-    <row r="304" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="18"/>
-      <c r="D304" s="18"/>
-      <c r="X304" s="13"/>
-      <c r="AI304" s="13"/>
-      <c r="AJ304" s="13"/>
-    </row>
-    <row r="305" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="18"/>
-      <c r="D305" s="18"/>
-      <c r="X305" s="13"/>
-      <c r="AI305" s="13"/>
-      <c r="AJ305" s="13"/>
-    </row>
-    <row r="306" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="18"/>
-      <c r="D306" s="18"/>
-      <c r="X306" s="13"/>
-      <c r="AI306" s="13"/>
-      <c r="AJ306" s="13"/>
-    </row>
-    <row r="307" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="18"/>
-      <c r="D307" s="18"/>
-      <c r="X307" s="13"/>
-      <c r="AI307" s="13"/>
-      <c r="AJ307" s="13"/>
-    </row>
-    <row r="308" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="18"/>
-      <c r="D308" s="18"/>
-      <c r="X308" s="13"/>
-      <c r="AI308" s="13"/>
-      <c r="AJ308" s="13"/>
-    </row>
-    <row r="309" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="18"/>
-      <c r="D309" s="18"/>
-      <c r="X309" s="13"/>
-      <c r="AI309" s="13"/>
-      <c r="AJ309" s="13"/>
-    </row>
-    <row r="310" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="18"/>
-      <c r="D310" s="18"/>
-      <c r="X310" s="13"/>
-      <c r="AI310" s="13"/>
-      <c r="AJ310" s="13"/>
-    </row>
-    <row r="311" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="18"/>
-      <c r="D311" s="18"/>
-      <c r="X311" s="13"/>
-      <c r="AI311" s="13"/>
-      <c r="AJ311" s="13"/>
-    </row>
-    <row r="312" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B312" s="18"/>
-      <c r="D312" s="18"/>
-      <c r="X312" s="13"/>
-      <c r="AI312" s="13"/>
-      <c r="AJ312" s="13"/>
-    </row>
-    <row r="313" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="18"/>
-      <c r="D313" s="18"/>
-      <c r="X313" s="13"/>
-      <c r="AI313" s="13"/>
-      <c r="AJ313" s="13"/>
-    </row>
-    <row r="314" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="18"/>
-      <c r="D314" s="18"/>
-      <c r="X314" s="13"/>
-      <c r="AI314" s="13"/>
-      <c r="AJ314" s="13"/>
-    </row>
-    <row r="315" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="18"/>
-      <c r="D315" s="18"/>
-      <c r="X315" s="13"/>
-      <c r="AI315" s="13"/>
-      <c r="AJ315" s="13"/>
-    </row>
-    <row r="316" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="18"/>
-      <c r="D316" s="18"/>
-      <c r="X316" s="13"/>
-      <c r="AI316" s="13"/>
-      <c r="AJ316" s="13"/>
-    </row>
-    <row r="317" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="18"/>
-      <c r="D317" s="18"/>
-      <c r="X317" s="13"/>
-      <c r="AI317" s="13"/>
-      <c r="AJ317" s="13"/>
-    </row>
-    <row r="318" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="18"/>
-      <c r="D318" s="18"/>
-      <c r="X318" s="13"/>
-      <c r="AI318" s="13"/>
-      <c r="AJ318" s="13"/>
-    </row>
-    <row r="319" spans="2:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="18"/>
-      <c r="D319" s="18"/>
-      <c r="X319" s="13"/>
-      <c r="AI319" s="13"/>
-      <c r="AJ319" s="13"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B235:B319">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(B235))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D235:D319">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(D235))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
